--- a/milestone-review/milestone-review.xlsx
+++ b/milestone-review/milestone-review.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Milestone Review Per Schedule</t>
   </si>
@@ -43,41 +43,22 @@
     <t>Design review meeting with instructor</t>
   </si>
   <si>
-    <t>Present and dicuss use cases/requirements with client</t>
-  </si>
-  <si>
-    <t>Present main page and theme to client</t>
-  </si>
-  <si>
-    <t>Present rough draft of site to client</t>
-  </si>
-  <si>
-    <t>Implement the rest of the pages on site</t>
-  </si>
-  <si>
-    <t>Present finalized site (with any changes suggested 
-from client) and dicuss future work</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Due to the individual project now
-being due on 11/24, I will change
-the 11/13 meeting to one where
-I ask for the client's feedback, 
-moving this proposed milestone to 
-11/20/2020</t>
-  </si>
-  <si>
-    <t>Project submission</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Individual project has not been
-submitted yet</t>
+    <t>Review use cases &amp; requirements with client</t>
+  </si>
+  <si>
+    <t>main page and theme idea for website</t>
+  </si>
+  <si>
+    <t>Hosted main page and skeleton for site</t>
+  </si>
+  <si>
+    <t>Near complete hosted website</t>
+  </si>
+  <si>
+    <t>Working website with presentation slides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.a </t>
   </si>
 </sst>
 </file>
@@ -88,7 +69,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -117,8 +98,9 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,18 +125,6 @@
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8282"/>
-        <bgColor rgb="FFFF8282"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -176,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -198,22 +168,19 @@
     <xf borderId="1" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="4" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,7 +465,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6">
@@ -515,13 +482,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>44120.0</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>44120.0</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -532,13 +499,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>44134.0</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>44134.0</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -549,19 +516,19 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <v>44142.0</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="11">
         <v>44143.0</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -570,33 +537,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="10">
-        <v>44148.0</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>8</v>
+        <v>44159.0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>44157.0</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="12">
-        <v>44159.0</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
